--- a/邻线干扰参数输入_V002.xlsx
+++ b/邻线干扰参数输入_V002.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李继隆\PycharmProjects\DisturbanceCalculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F570BEB5-985B-47DE-8B44-AB03D2658244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA626CD-33D5-4004-A4DF-15B646482635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,12 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>双端TB</t>
-  </si>
-  <si>
-    <t>右发</t>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,6 +106,12 @@
   <si>
     <t>被串相对位置(m)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左发</t>
+  </si>
+  <si>
+    <t>无TB</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -629,34 +629,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="H2">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1700</v>
@@ -671,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>25</v>
@@ -689,13 +689,13 @@
         <v>10000</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
       <formula1>"双端TB, 左端单TB, 右端单TB, 无TB"</formula1>
     </dataValidation>
@@ -734,9 +734,13 @@
       <formula1>0</formula1>
       <formula2>40</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 D2" xr:uid="{78D384FE-8E29-4E98-A0BF-6C7F43B6AFD5}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{78D384FE-8E29-4E98-A0BF-6C7F43B6AFD5}">
       <formula1>0</formula1>
       <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{E2A3F163-BCB5-409D-B7AD-5C54B485062D}">
+      <formula1>0</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
